--- a/Code/Results/Cases/Case_5_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_168/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.16016799547512</v>
+        <v>9.705819096474256</v>
       </c>
       <c r="C2">
-        <v>8.189280043402954</v>
+        <v>5.886732840644895</v>
       </c>
       <c r="D2">
-        <v>4.405643468010969</v>
+        <v>4.698982350471377</v>
       </c>
       <c r="E2">
-        <v>29.58774225021715</v>
+        <v>16.47109017746577</v>
       </c>
       <c r="F2">
-        <v>18.84653939902397</v>
+        <v>23.8043630212011</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.66284190243756</v>
+        <v>8.882731979470785</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.49514500024548</v>
+        <v>17.87599817921527</v>
       </c>
       <c r="O2">
-        <v>14.85518763172148</v>
+        <v>21.24733676098599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22659821172239</v>
+        <v>9.374954354193941</v>
       </c>
       <c r="C3">
-        <v>7.786574915686457</v>
+        <v>5.706250316016019</v>
       </c>
       <c r="D3">
-        <v>4.279417168664883</v>
+        <v>4.652626964583876</v>
       </c>
       <c r="E3">
-        <v>27.44988242437915</v>
+        <v>15.53926467437217</v>
       </c>
       <c r="F3">
-        <v>18.32873715677715</v>
+        <v>23.7906150751111</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.91958919520851</v>
+        <v>8.647363175537642</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.71411542649139</v>
+        <v>17.93844410697893</v>
       </c>
       <c r="O3">
-        <v>14.68883229915773</v>
+        <v>21.29249195108409</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.62081203150824</v>
+        <v>9.167637212089934</v>
       </c>
       <c r="C4">
-        <v>7.528802441796422</v>
+        <v>5.591466566721057</v>
       </c>
       <c r="D4">
-        <v>4.199327539190342</v>
+        <v>4.623474135508906</v>
       </c>
       <c r="E4">
-        <v>26.0734831972607</v>
+        <v>14.94241301997945</v>
       </c>
       <c r="F4">
-        <v>18.02320662396704</v>
+        <v>23.78909603260898</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.4398050767715</v>
+        <v>8.501173258586125</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.85101830203795</v>
+        <v>17.97850918578581</v>
       </c>
       <c r="O4">
-        <v>14.6009936761179</v>
+        <v>21.32540428907009</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.36571667893513</v>
+        <v>9.082245421718337</v>
       </c>
       <c r="C5">
-        <v>7.421171013320796</v>
+        <v>5.543735994403812</v>
       </c>
       <c r="D5">
-        <v>4.166069995046138</v>
+        <v>4.611425863154466</v>
       </c>
       <c r="E5">
-        <v>25.49626734298307</v>
+        <v>14.69324880114321</v>
       </c>
       <c r="F5">
-        <v>17.9019071550335</v>
+        <v>23.79021741609492</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.23843153479521</v>
+        <v>8.441271340075321</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.90745834841488</v>
+        <v>17.99527072555972</v>
       </c>
       <c r="O5">
-        <v>14.56868591495623</v>
+        <v>21.34011648575566</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.32285994013001</v>
+        <v>9.068015606255418</v>
       </c>
       <c r="C6">
-        <v>7.403144554017246</v>
+        <v>5.53575398505217</v>
       </c>
       <c r="D6">
-        <v>4.160511060759704</v>
+        <v>4.609415252793566</v>
       </c>
       <c r="E6">
-        <v>25.39942702463603</v>
+        <v>14.65152531950263</v>
       </c>
       <c r="F6">
-        <v>17.88196158250556</v>
+        <v>23.79050870178548</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.20464112602294</v>
+        <v>8.431307628284383</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.91687044730813</v>
+        <v>17.99808026285974</v>
       </c>
       <c r="O6">
-        <v>14.56352848906332</v>
+        <v>21.34263783351085</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.61740511171648</v>
+        <v>9.166489074324257</v>
       </c>
       <c r="C7">
-        <v>7.52736127754847</v>
+        <v>5.590826664655121</v>
       </c>
       <c r="D7">
-        <v>4.198881486776102</v>
+        <v>4.623312322433295</v>
       </c>
       <c r="E7">
-        <v>26.06576512551069</v>
+        <v>14.93907636819422</v>
       </c>
       <c r="F7">
-        <v>18.0215576416454</v>
+        <v>23.78910411059316</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.43711294424474</v>
+        <v>8.50036660449261</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.85177679295103</v>
+        <v>17.97873347583927</v>
       </c>
       <c r="O7">
-        <v>14.60054399370052</v>
+        <v>21.32559744439211</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.84500572449371</v>
+        <v>9.592681041092414</v>
       </c>
       <c r="C8">
-        <v>8.052637754826797</v>
+        <v>5.825349865947567</v>
       </c>
       <c r="D8">
-        <v>4.36267458913002</v>
+        <v>4.683145492745094</v>
       </c>
       <c r="E8">
-        <v>28.86365666716556</v>
+        <v>16.15507130896397</v>
       </c>
       <c r="F8">
-        <v>18.66548154846598</v>
+        <v>23.79818628822177</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.4114441658644</v>
+        <v>8.801977782593211</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.57015773477004</v>
+        <v>17.89717278371581</v>
       </c>
       <c r="O8">
-        <v>14.79479594709061</v>
+        <v>21.26182735092064</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99611691020845</v>
+        <v>10.38989363547256</v>
       </c>
       <c r="C9">
-        <v>8.997567053323612</v>
+        <v>6.25211976509989</v>
       </c>
       <c r="D9">
-        <v>4.662163125262878</v>
+        <v>4.794771295942239</v>
       </c>
       <c r="E9">
-        <v>33.85870248409653</v>
+        <v>18.41137254896231</v>
       </c>
       <c r="F9">
-        <v>20.02264444706762</v>
+        <v>23.87087055002855</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.1356807170653</v>
+        <v>9.376368424807149</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.03572145879244</v>
+        <v>17.75083767219069</v>
       </c>
       <c r="O9">
-        <v>15.29372547240938</v>
+        <v>21.17810115012558</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.42382845745724</v>
+        <v>10.94556887747801</v>
       </c>
       <c r="C10">
-        <v>9.638469686580786</v>
+        <v>6.543520632301751</v>
       </c>
       <c r="D10">
-        <v>4.867538422364916</v>
+        <v>4.873007789175642</v>
       </c>
       <c r="E10">
-        <v>37.25025444921046</v>
+        <v>20.04649757973475</v>
       </c>
       <c r="F10">
-        <v>21.07230456655111</v>
+        <v>23.95756516882105</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.28913224873309</v>
+        <v>9.783270212088022</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.65142447418358</v>
+        <v>17.65152479582292</v>
       </c>
       <c r="O10">
-        <v>15.73788654672042</v>
+        <v>21.14199546738765</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.04103285623649</v>
+        <v>11.19068458618796</v>
       </c>
       <c r="C11">
-        <v>9.918376059988361</v>
+        <v>6.670935294790352</v>
       </c>
       <c r="D11">
-        <v>4.957528746211593</v>
+        <v>4.907719757320026</v>
       </c>
       <c r="E11">
-        <v>38.73799810812386</v>
+        <v>20.74823905097954</v>
       </c>
       <c r="F11">
-        <v>21.56036079148408</v>
+        <v>24.00416898780914</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.78957469358138</v>
+        <v>9.964223287127453</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.47779599455521</v>
+        <v>17.6081049946778</v>
       </c>
       <c r="O11">
-        <v>15.9578898778204</v>
+        <v>21.1311250669337</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.27018895823946</v>
+        <v>11.28231972741815</v>
       </c>
       <c r="C12">
-        <v>10.02270132023472</v>
+        <v>6.718419679285114</v>
       </c>
       <c r="D12">
-        <v>4.991092766213701</v>
+        <v>4.920733082834762</v>
       </c>
       <c r="E12">
-        <v>39.2939342236218</v>
+        <v>21.00795447534694</v>
       </c>
       <c r="F12">
-        <v>21.74664003590846</v>
+        <v>24.02283910049963</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.97562864227008</v>
+        <v>10.03208381471491</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.41216223382621</v>
+        <v>17.59191435628163</v>
       </c>
       <c r="O12">
-        <v>16.04386508916138</v>
+        <v>21.12780980482039</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.22103790517606</v>
+        <v>11.26263837180479</v>
       </c>
       <c r="C13">
-        <v>10.00030706524617</v>
+        <v>6.70822744736774</v>
       </c>
       <c r="D13">
-        <v>4.98388727432784</v>
+        <v>4.91793635073324</v>
       </c>
       <c r="E13">
-        <v>39.174526105182</v>
+        <v>20.95228727918821</v>
       </c>
       <c r="F13">
-        <v>21.70645707059437</v>
+        <v>24.01877283906865</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.9357114602433</v>
+        <v>10.01749928704474</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.42629344168145</v>
+        <v>17.59539013540395</v>
       </c>
       <c r="O13">
-        <v>16.02522895427809</v>
+        <v>21.12848814178391</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.05997672380804</v>
+        <v>11.19824765026311</v>
       </c>
       <c r="C14">
-        <v>9.926992352455299</v>
+        <v>6.674857323478333</v>
       </c>
       <c r="D14">
-        <v>4.96030047109012</v>
+        <v>4.908793032172458</v>
       </c>
       <c r="E14">
-        <v>38.78388147338212</v>
+        <v>20.76972643389973</v>
       </c>
       <c r="F14">
-        <v>21.57565702385198</v>
+        <v>24.00568455397807</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.80495041412271</v>
+        <v>9.969819847312968</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.47239428695769</v>
+        <v>17.60676794824077</v>
       </c>
       <c r="O14">
-        <v>15.96490923043103</v>
+        <v>21.13083625032021</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.96072981117475</v>
+        <v>11.15864988043738</v>
       </c>
       <c r="C15">
-        <v>9.881867906825248</v>
+        <v>6.654316871884297</v>
       </c>
       <c r="D15">
-        <v>4.945785475992362</v>
+        <v>4.903175233318064</v>
       </c>
       <c r="E15">
-        <v>38.5436466115404</v>
+        <v>20.65711978789655</v>
       </c>
       <c r="F15">
-        <v>21.49572742984498</v>
+        <v>23.99780046044819</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.72440711943218</v>
+        <v>9.940526683693838</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.50064569563712</v>
+        <v>17.61376990060837</v>
       </c>
       <c r="O15">
-        <v>15.92831114221201</v>
+        <v>21.13237892883339</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.3828495876894</v>
+        <v>10.92938846894418</v>
       </c>
       <c r="C16">
-        <v>9.619943070426361</v>
+        <v>6.535088054112456</v>
       </c>
       <c r="D16">
-        <v>4.861586514450544</v>
+        <v>4.870721172669722</v>
       </c>
       <c r="E16">
-        <v>37.15195838166781</v>
+        <v>19.99979308593335</v>
       </c>
       <c r="F16">
-        <v>21.04061624441597</v>
+        <v>23.95466303099253</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.25594174953128</v>
+        <v>9.771355254427675</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.66279082386454</v>
+        <v>17.65439764702252</v>
       </c>
       <c r="O16">
-        <v>15.7238771933232</v>
+        <v>21.14281785709162</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02012498803617</v>
+        <v>10.78671904719304</v>
       </c>
       <c r="C17">
-        <v>9.456279111891703</v>
+        <v>6.46060857912605</v>
       </c>
       <c r="D17">
-        <v>4.809038862827228</v>
+        <v>4.850583079403745</v>
       </c>
       <c r="E17">
-        <v>36.28441996374803</v>
+        <v>19.58578895526621</v>
       </c>
       <c r="F17">
-        <v>20.76407940791931</v>
+        <v>23.93002964233201</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.96236082140409</v>
+        <v>9.666462744038117</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.76252855273556</v>
+        <v>17.67977081078441</v>
       </c>
       <c r="O17">
-        <v>15.60312121317964</v>
+        <v>21.15064624736765</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.80845328707502</v>
+        <v>10.70394231535835</v>
       </c>
       <c r="C18">
-        <v>9.361047077207161</v>
+        <v>6.417286972320066</v>
       </c>
       <c r="D18">
-        <v>4.77849246931878</v>
+        <v>4.838917812739631</v>
       </c>
       <c r="E18">
-        <v>35.78021780741464</v>
+        <v>19.34370152511964</v>
       </c>
       <c r="F18">
-        <v>20.60601898781259</v>
+        <v>23.91653625420193</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.7912137101148</v>
+        <v>9.605744424949329</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.82001070521764</v>
+        <v>17.69453034466046</v>
       </c>
       <c r="O18">
-        <v>15.53535050716555</v>
+        <v>21.15567160565892</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.73626023514511</v>
+        <v>10.6757950683798</v>
       </c>
       <c r="C19">
-        <v>9.328614760705653</v>
+        <v>6.402536876182801</v>
       </c>
       <c r="D19">
-        <v>4.768095234234791</v>
+        <v>4.834954163813459</v>
       </c>
       <c r="E19">
-        <v>35.6085937265752</v>
+        <v>19.26105318901956</v>
       </c>
       <c r="F19">
-        <v>20.55267556610975</v>
+        <v>23.91208379674731</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.73287245995455</v>
+        <v>9.585121895948369</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.83949464429833</v>
+        <v>17.69955614485042</v>
       </c>
       <c r="O19">
-        <v>15.51269134507446</v>
+        <v>21.15746279444254</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.05905196783284</v>
+        <v>10.80198129437681</v>
       </c>
       <c r="C20">
-        <v>9.473814933014248</v>
+        <v>6.468587223238588</v>
       </c>
       <c r="D20">
-        <v>4.814666159850637</v>
+        <v>4.85273537572296</v>
       </c>
       <c r="E20">
-        <v>36.37730751988887</v>
+        <v>19.6302703391353</v>
       </c>
       <c r="F20">
-        <v>20.79341458387666</v>
+        <v>23.93258209439239</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99384948497675</v>
+        <v>9.677669271797653</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.75189971755942</v>
+        <v>17.67705266877805</v>
       </c>
       <c r="O20">
-        <v>15.61580090278767</v>
+        <v>21.14975878788668</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.10740758760888</v>
+        <v>11.21719353416719</v>
       </c>
       <c r="C21">
-        <v>9.948571874969817</v>
+        <v>6.684679877949533</v>
       </c>
       <c r="D21">
-        <v>4.967242564422674</v>
+        <v>4.911482250621253</v>
       </c>
       <c r="E21">
-        <v>38.89882109614246</v>
+        <v>20.82351206769257</v>
       </c>
       <c r="F21">
-        <v>21.61403680693596</v>
+        <v>24.00950122961283</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.84345146444577</v>
+        <v>9.983842930205999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.45885068444373</v>
+        <v>17.60341919368833</v>
       </c>
       <c r="O21">
-        <v>15.98255361515594</v>
+        <v>21.13012479455271</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.76599467419083</v>
+        <v>11.48162082320519</v>
       </c>
       <c r="C22">
-        <v>10.249132596689</v>
+        <v>6.821441630807874</v>
       </c>
       <c r="D22">
-        <v>5.063960045655515</v>
+        <v>4.949108926042309</v>
       </c>
       <c r="E22">
-        <v>40.50367182747554</v>
+        <v>21.56829722975286</v>
       </c>
       <c r="F22">
-        <v>22.15887747276206</v>
+        <v>24.06572597386451</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.37861453170787</v>
+        <v>10.18005722045402</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.26797001713835</v>
+        <v>17.55676077797484</v>
       </c>
       <c r="O22">
-        <v>16.23781861341268</v>
+        <v>21.12196320884148</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.41689962639964</v>
+        <v>11.3411506836496</v>
       </c>
       <c r="C23">
-        <v>10.08960296574432</v>
+        <v>6.748865557819431</v>
       </c>
       <c r="D23">
-        <v>5.012620533641623</v>
+        <v>4.929098745178524</v>
       </c>
       <c r="E23">
-        <v>39.65090367764944</v>
+        <v>21.17398920530024</v>
       </c>
       <c r="F23">
-        <v>21.86731941469755</v>
+        <v>24.03517610779951</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.09481232725168</v>
+        <v>10.0757099764976</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.36980753120094</v>
+        <v>17.58152960935327</v>
       </c>
       <c r="O23">
-        <v>16.10012664871093</v>
+        <v>21.12589117623877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04146285530412</v>
+        <v>10.79508357511709</v>
       </c>
       <c r="C24">
-        <v>9.465890537670237</v>
+        <v>6.464981641128798</v>
       </c>
       <c r="D24">
-        <v>4.812123104103637</v>
+        <v>4.851762595033772</v>
       </c>
       <c r="E24">
-        <v>36.33533004448328</v>
+        <v>19.6101729886565</v>
       </c>
       <c r="F24">
-        <v>20.78014926736149</v>
+        <v>23.93142604726076</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.97962082470819</v>
+        <v>9.672604085697644</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.7567045687489</v>
+        <v>17.67828100435699</v>
       </c>
       <c r="O24">
-        <v>15.61006327107158</v>
+        <v>21.15015837398286</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.44127402070674</v>
+        <v>10.17907338109196</v>
       </c>
       <c r="C25">
-        <v>8.75124482487619</v>
+        <v>6.140429222239054</v>
       </c>
       <c r="D25">
-        <v>4.583623569776251</v>
+        <v>4.765215555939566</v>
       </c>
       <c r="E25">
-        <v>32.55794038254381</v>
+        <v>17.77168374368504</v>
       </c>
       <c r="F25">
-        <v>19.64592702029447</v>
+        <v>23.84534334191641</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.68920398594698</v>
+        <v>9.223315184471456</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.17863973139346</v>
+        <v>17.78897847565327</v>
       </c>
       <c r="O25">
-        <v>15.1455085073431</v>
+        <v>21.19630335628167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_168/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.705819096474256</v>
+        <v>14.16016799547514</v>
       </c>
       <c r="C2">
-        <v>5.886732840644895</v>
+        <v>8.189280043402954</v>
       </c>
       <c r="D2">
-        <v>4.698982350471377</v>
+        <v>4.405643468011014</v>
       </c>
       <c r="E2">
-        <v>16.47109017746577</v>
+        <v>29.58774225021719</v>
       </c>
       <c r="F2">
-        <v>23.8043630212011</v>
+        <v>18.84653939902392</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.882731979470785</v>
+        <v>12.66284190243758</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.87599817921527</v>
+        <v>11.49514500024545</v>
       </c>
       <c r="O2">
-        <v>21.24733676098599</v>
+        <v>14.85518763172141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.374954354193941</v>
+        <v>13.22659821172243</v>
       </c>
       <c r="C3">
-        <v>5.706250316016019</v>
+        <v>7.786574915686622</v>
       </c>
       <c r="D3">
-        <v>4.652626964583876</v>
+        <v>4.279417168664708</v>
       </c>
       <c r="E3">
-        <v>15.53926467437217</v>
+        <v>27.44988242437915</v>
       </c>
       <c r="F3">
-        <v>23.7906150751111</v>
+        <v>18.32873715677709</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.647363175537642</v>
+        <v>11.91958919520856</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.93844410697893</v>
+        <v>11.71411542649133</v>
       </c>
       <c r="O3">
-        <v>21.29249195108409</v>
+        <v>14.68883229915762</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.167637212089934</v>
+        <v>12.6208120315082</v>
       </c>
       <c r="C4">
-        <v>5.591466566721057</v>
+        <v>7.528802441796524</v>
       </c>
       <c r="D4">
-        <v>4.623474135508906</v>
+        <v>4.199327539190308</v>
       </c>
       <c r="E4">
-        <v>14.94241301997945</v>
+        <v>26.07348319726076</v>
       </c>
       <c r="F4">
-        <v>23.78909603260898</v>
+        <v>18.02320662396695</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.501173258586125</v>
+        <v>11.4398050767715</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.97850918578581</v>
+        <v>11.85101830203789</v>
       </c>
       <c r="O4">
-        <v>21.32540428907009</v>
+        <v>14.60099367611782</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.082245421718337</v>
+        <v>12.36571667893516</v>
       </c>
       <c r="C5">
-        <v>5.543735994403812</v>
+        <v>7.421171013320821</v>
       </c>
       <c r="D5">
-        <v>4.611425863154466</v>
+        <v>4.16606999504614</v>
       </c>
       <c r="E5">
-        <v>14.69324880114321</v>
+        <v>25.49626734298315</v>
       </c>
       <c r="F5">
-        <v>23.79021741609492</v>
+        <v>17.90190715503335</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.441271340075321</v>
+        <v>11.23843153479526</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.99527072555972</v>
+        <v>11.90745834841481</v>
       </c>
       <c r="O5">
-        <v>21.34011648575566</v>
+        <v>14.5686859149561</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.068015606255418</v>
+        <v>12.32285994013003</v>
       </c>
       <c r="C6">
-        <v>5.53575398505217</v>
+        <v>7.403144554017156</v>
       </c>
       <c r="D6">
-        <v>4.609415252793566</v>
+        <v>4.160511060759758</v>
       </c>
       <c r="E6">
-        <v>14.65152531950263</v>
+        <v>25.39942702463604</v>
       </c>
       <c r="F6">
-        <v>23.79050870178548</v>
+        <v>17.88196158250543</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.431307628284383</v>
+        <v>11.20464112602294</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.99808026285974</v>
+        <v>11.91687044730806</v>
       </c>
       <c r="O6">
-        <v>21.34263783351085</v>
+        <v>14.56352848906319</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.166489074324257</v>
+        <v>12.61740511171648</v>
       </c>
       <c r="C7">
-        <v>5.590826664655121</v>
+        <v>7.527361277548369</v>
       </c>
       <c r="D7">
-        <v>4.623312322433295</v>
+        <v>4.198881486776113</v>
       </c>
       <c r="E7">
-        <v>14.93907636819422</v>
+        <v>26.06576512551072</v>
       </c>
       <c r="F7">
-        <v>23.78910411059316</v>
+        <v>18.02155764164532</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.50036660449261</v>
+        <v>11.43711294424478</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.97873347583927</v>
+        <v>11.85177679295097</v>
       </c>
       <c r="O7">
-        <v>21.32559744439211</v>
+        <v>14.60054399370042</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.592681041092414</v>
+        <v>13.84500572449375</v>
       </c>
       <c r="C8">
-        <v>5.825349865947567</v>
+        <v>8.052637754826787</v>
       </c>
       <c r="D8">
-        <v>4.683145492745094</v>
+        <v>4.362674589130082</v>
       </c>
       <c r="E8">
-        <v>16.15507130896397</v>
+        <v>28.86365666716553</v>
       </c>
       <c r="F8">
-        <v>23.79818628822177</v>
+        <v>18.6654815484659</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.801977782593211</v>
+        <v>12.41144416586443</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.89717278371581</v>
+        <v>11.57015773477004</v>
       </c>
       <c r="O8">
-        <v>21.26182735092064</v>
+        <v>14.79479594709055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.38989363547256</v>
+        <v>15.99611691020853</v>
       </c>
       <c r="C9">
-        <v>6.25211976509989</v>
+        <v>8.997567053323532</v>
       </c>
       <c r="D9">
-        <v>4.794771295942239</v>
+        <v>4.662163125262774</v>
       </c>
       <c r="E9">
-        <v>18.41137254896231</v>
+        <v>33.85870248409655</v>
       </c>
       <c r="F9">
-        <v>23.87087055002855</v>
+        <v>20.02264444706762</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.376368424807149</v>
+        <v>14.13568071706531</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.75083767219069</v>
+        <v>11.03572145879238</v>
       </c>
       <c r="O9">
-        <v>21.17810115012558</v>
+        <v>15.29372547240934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.94556887747801</v>
+        <v>17.42382845745716</v>
       </c>
       <c r="C10">
-        <v>6.543520632301751</v>
+        <v>9.638469686580905</v>
       </c>
       <c r="D10">
-        <v>4.873007789175642</v>
+        <v>4.867538422364704</v>
       </c>
       <c r="E10">
-        <v>20.04649757973475</v>
+        <v>37.25025444921041</v>
       </c>
       <c r="F10">
-        <v>23.95756516882105</v>
+        <v>21.07230456655115</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.783270212088022</v>
+        <v>15.28913224873305</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.65152479582292</v>
+        <v>10.65142447418362</v>
       </c>
       <c r="O10">
-        <v>21.14199546738765</v>
+        <v>15.73788654672045</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.19068458618796</v>
+        <v>18.04103285623645</v>
       </c>
       <c r="C11">
-        <v>6.670935294790352</v>
+        <v>9.918376059988352</v>
       </c>
       <c r="D11">
-        <v>4.907719757320026</v>
+        <v>4.957528746211779</v>
       </c>
       <c r="E11">
-        <v>20.74823905097954</v>
+        <v>38.73799810812395</v>
       </c>
       <c r="F11">
-        <v>24.00416898780914</v>
+        <v>21.56036079148404</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.964223287127453</v>
+        <v>15.78957469358133</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.6081049946778</v>
+        <v>10.47779599455521</v>
       </c>
       <c r="O11">
-        <v>21.1311250669337</v>
+        <v>15.95788987782042</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.28231972741815</v>
+        <v>18.27018895823946</v>
       </c>
       <c r="C12">
-        <v>6.718419679285114</v>
+        <v>10.02270132023456</v>
       </c>
       <c r="D12">
-        <v>4.920733082834762</v>
+        <v>4.991092766213908</v>
       </c>
       <c r="E12">
-        <v>21.00795447534694</v>
+        <v>39.2939342236218</v>
       </c>
       <c r="F12">
-        <v>24.02283910049963</v>
+        <v>21.74664003590838</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.03208381471491</v>
+        <v>15.97562864227003</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.59191435628163</v>
+        <v>10.41216223382621</v>
       </c>
       <c r="O12">
-        <v>21.12780980482039</v>
+        <v>16.04386508916134</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.26263837180479</v>
+        <v>18.22103790517601</v>
       </c>
       <c r="C13">
-        <v>6.70822744736774</v>
+        <v>10.00030706524618</v>
       </c>
       <c r="D13">
-        <v>4.91793635073324</v>
+        <v>4.98388727432786</v>
       </c>
       <c r="E13">
-        <v>20.95228727918821</v>
+        <v>39.1745261051819</v>
       </c>
       <c r="F13">
-        <v>24.01877283906865</v>
+        <v>21.70645707059438</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.01749928704474</v>
+        <v>15.93571146024325</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.59539013540395</v>
+        <v>10.42629344168148</v>
       </c>
       <c r="O13">
-        <v>21.12848814178391</v>
+        <v>16.02522895427813</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.19824765026311</v>
+        <v>18.05997672380802</v>
       </c>
       <c r="C14">
-        <v>6.674857323478333</v>
+        <v>9.926992352455374</v>
       </c>
       <c r="D14">
-        <v>4.908793032172458</v>
+        <v>4.960300471089921</v>
       </c>
       <c r="E14">
-        <v>20.76972643389973</v>
+        <v>38.78388147338213</v>
       </c>
       <c r="F14">
-        <v>24.00568455397807</v>
+        <v>21.57565702385206</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.969819847312968</v>
+        <v>15.8049504141227</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.60676794824077</v>
+        <v>10.47239428695773</v>
       </c>
       <c r="O14">
-        <v>21.13083625032021</v>
+        <v>15.96490923043108</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.15864988043738</v>
+        <v>17.96072981117468</v>
       </c>
       <c r="C15">
-        <v>6.654316871884297</v>
+        <v>9.881867906825216</v>
       </c>
       <c r="D15">
-        <v>4.903175233318064</v>
+        <v>4.945785475992323</v>
       </c>
       <c r="E15">
-        <v>20.65711978789655</v>
+        <v>38.54364661154037</v>
       </c>
       <c r="F15">
-        <v>23.99780046044819</v>
+        <v>21.49572742984501</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.940526683693838</v>
+        <v>15.72440711943211</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.61376990060837</v>
+        <v>10.50064569563712</v>
       </c>
       <c r="O15">
-        <v>21.13237892883339</v>
+        <v>15.92831114221204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.92938846894418</v>
+        <v>17.38284958768941</v>
       </c>
       <c r="C16">
-        <v>6.535088054112456</v>
+        <v>9.619943070426427</v>
       </c>
       <c r="D16">
-        <v>4.870721172669722</v>
+        <v>4.861586514450479</v>
       </c>
       <c r="E16">
-        <v>19.99979308593335</v>
+        <v>37.1519583816678</v>
       </c>
       <c r="F16">
-        <v>23.95466303099253</v>
+        <v>21.04061624441599</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.771355254427675</v>
+        <v>15.25594174953132</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.65439764702252</v>
+        <v>10.66279082386454</v>
       </c>
       <c r="O16">
-        <v>21.14281785709162</v>
+        <v>15.72387719332322</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.78671904719304</v>
+        <v>17.02012498803627</v>
       </c>
       <c r="C17">
-        <v>6.46060857912605</v>
+        <v>9.456279111891517</v>
       </c>
       <c r="D17">
-        <v>4.850583079403745</v>
+        <v>4.809038862827193</v>
       </c>
       <c r="E17">
-        <v>19.58578895526621</v>
+        <v>36.28441996374796</v>
       </c>
       <c r="F17">
-        <v>23.93002964233201</v>
+        <v>20.76407940791929</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.666462744038117</v>
+        <v>14.96236082140414</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.67977081078441</v>
+        <v>10.76252855273553</v>
       </c>
       <c r="O17">
-        <v>21.15064624736765</v>
+        <v>15.60312121317959</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.70394231535835</v>
+        <v>16.80845328707501</v>
       </c>
       <c r="C18">
-        <v>6.417286972320066</v>
+        <v>9.361047077207273</v>
       </c>
       <c r="D18">
-        <v>4.838917812739631</v>
+        <v>4.778492469318733</v>
       </c>
       <c r="E18">
-        <v>19.34370152511964</v>
+        <v>35.78021780741464</v>
       </c>
       <c r="F18">
-        <v>23.91653625420193</v>
+        <v>20.60601898781258</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.605744424949329</v>
+        <v>14.79121371011484</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.69453034466046</v>
+        <v>10.82001070521761</v>
       </c>
       <c r="O18">
-        <v>21.15567160565892</v>
+        <v>15.5353505071655</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.6757950683798</v>
+        <v>16.73626023514521</v>
       </c>
       <c r="C19">
-        <v>6.402536876182801</v>
+        <v>9.328614760705573</v>
       </c>
       <c r="D19">
-        <v>4.834954163813459</v>
+        <v>4.768095234234799</v>
       </c>
       <c r="E19">
-        <v>19.26105318901956</v>
+        <v>35.60859372657526</v>
       </c>
       <c r="F19">
-        <v>23.91208379674731</v>
+        <v>20.55267556610969</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.585121895948369</v>
+        <v>14.73287245995459</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.69955614485042</v>
+        <v>10.8394946442983</v>
       </c>
       <c r="O19">
-        <v>21.15746279444254</v>
+        <v>15.51269134507441</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.80198129437681</v>
+        <v>17.0590519678329</v>
       </c>
       <c r="C20">
-        <v>6.468587223238588</v>
+        <v>9.473814933014262</v>
       </c>
       <c r="D20">
-        <v>4.85273537572296</v>
+        <v>4.814666159850707</v>
       </c>
       <c r="E20">
-        <v>19.6302703391353</v>
+        <v>36.37730751988897</v>
       </c>
       <c r="F20">
-        <v>23.93258209439239</v>
+        <v>20.79341458387663</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.677669271797653</v>
+        <v>14.99384948497678</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.67705266877805</v>
+        <v>10.75189971755945</v>
       </c>
       <c r="O20">
-        <v>21.14975878788668</v>
+        <v>15.61580090278768</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.21719353416719</v>
+        <v>18.10740758760887</v>
       </c>
       <c r="C21">
-        <v>6.684679877949533</v>
+        <v>9.948571874970003</v>
       </c>
       <c r="D21">
-        <v>4.911482250621253</v>
+        <v>4.967242564422766</v>
       </c>
       <c r="E21">
-        <v>20.82351206769257</v>
+        <v>38.89882109614248</v>
       </c>
       <c r="F21">
-        <v>24.00950122961283</v>
+        <v>21.61403680693582</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.983842930205999</v>
+        <v>15.84345146444582</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.60341919368833</v>
+        <v>10.45885068444363</v>
       </c>
       <c r="O21">
-        <v>21.13012479455271</v>
+        <v>15.98255361515581</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.48162082320519</v>
+        <v>18.76599467419083</v>
       </c>
       <c r="C22">
-        <v>6.821441630807874</v>
+        <v>10.249132596689</v>
       </c>
       <c r="D22">
-        <v>4.949108926042309</v>
+        <v>5.063960045655521</v>
       </c>
       <c r="E22">
-        <v>21.56829722975286</v>
+        <v>40.50367182747555</v>
       </c>
       <c r="F22">
-        <v>24.06572597386451</v>
+        <v>22.15887747276206</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.18005722045402</v>
+        <v>16.37861453170788</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.55676077797484</v>
+        <v>10.26797001713835</v>
       </c>
       <c r="O22">
-        <v>21.12196320884148</v>
+        <v>16.23781861341268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.3411506836496</v>
+        <v>18.41689962639971</v>
       </c>
       <c r="C23">
-        <v>6.748865557819431</v>
+        <v>10.0896029657445</v>
       </c>
       <c r="D23">
-        <v>4.929098745178524</v>
+        <v>5.012620533641824</v>
       </c>
       <c r="E23">
-        <v>21.17398920530024</v>
+        <v>39.65090367764944</v>
       </c>
       <c r="F23">
-        <v>24.03517610779951</v>
+        <v>21.86731941469743</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.0757099764976</v>
+        <v>16.09481232725178</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.58152960935327</v>
+        <v>10.36980753120088</v>
       </c>
       <c r="O23">
-        <v>21.12589117623877</v>
+        <v>16.10012664871081</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.79508357511709</v>
+        <v>17.04146285530408</v>
       </c>
       <c r="C24">
-        <v>6.464981641128798</v>
+        <v>9.465890537670173</v>
       </c>
       <c r="D24">
-        <v>4.851762595033772</v>
+        <v>4.812123104103631</v>
       </c>
       <c r="E24">
-        <v>19.6101729886565</v>
+        <v>36.33533004448336</v>
       </c>
       <c r="F24">
-        <v>23.93142604726076</v>
+        <v>20.78014926736149</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.672604085697644</v>
+        <v>14.97962082470811</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.67828100435699</v>
+        <v>10.75670456874887</v>
       </c>
       <c r="O24">
-        <v>21.15015837398286</v>
+        <v>15.6100632710716</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.17907338109196</v>
+        <v>15.44127402070677</v>
       </c>
       <c r="C25">
-        <v>6.140429222239054</v>
+        <v>8.751244824876249</v>
       </c>
       <c r="D25">
-        <v>4.765215555939566</v>
+        <v>4.583623569776318</v>
       </c>
       <c r="E25">
-        <v>17.77168374368504</v>
+        <v>32.55794038254382</v>
       </c>
       <c r="F25">
-        <v>23.84534334191641</v>
+        <v>19.64592702029441</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.223315184471456</v>
+        <v>13.68920398594702</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.78897847565327</v>
+        <v>11.17863973139343</v>
       </c>
       <c r="O25">
-        <v>21.19630335628167</v>
+        <v>15.14550850734308</v>
       </c>
     </row>
   </sheetData>
